--- a/budget/CZI HCA Goff Budget 2017 Draft.xlsx
+++ b/budget/CZI HCA Goff Budget 2017 Draft.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$59</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>Personnel:</t>
   </si>
@@ -79,15 +79,6 @@
   </si>
   <si>
     <t>Reagents for enzymatic dissociation of single cells and seq. library preparation</t>
-  </si>
-  <si>
-    <t>Elana Fertig</t>
-  </si>
-  <si>
-    <t>Co-Investigator</t>
-  </si>
-  <si>
-    <t>Seth Blackshaw</t>
   </si>
   <si>
     <t>Services</t>
@@ -1129,10 +1120,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1151,7 +1142,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="70" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="28"/>
@@ -1195,7 +1186,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7">
         <v>130050</v>
@@ -1222,233 +1213,215 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D4" s="66">
-        <v>119100</v>
+        <v>0</v>
       </c>
       <c r="E4" s="67">
-        <f t="shared" ref="E4:E11" si="0">12*F4</f>
-        <v>1.7999999999999998</v>
+        <v>0</v>
       </c>
       <c r="F4" s="68">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G4" s="10">
-        <f t="shared" ref="G4:G11" si="1">D4*F4</f>
-        <v>17865</v>
+        <v>0</v>
       </c>
       <c r="H4" s="10">
-        <f t="shared" ref="H4" si="2">G4*0.34</f>
-        <v>6074.1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="37">
-        <f t="shared" ref="I4:I7" si="3">SUM(G4:H4)</f>
-        <v>23939.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="66">
-        <v>165000</v>
+        <v>47853</v>
       </c>
       <c r="E5" s="67">
-        <f t="shared" si="0"/>
-        <v>1.2000000000000002</v>
+        <f t="shared" ref="E5:E8" si="0">12*F5</f>
+        <v>12</v>
       </c>
       <c r="F5" s="68">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G5" s="10">
-        <f>D5*F5</f>
-        <v>16500</v>
+        <f t="shared" ref="G5:G8" si="1">D5*F5</f>
+        <v>47853</v>
       </c>
       <c r="H5" s="10">
-        <f>G5*0.34</f>
-        <v>5610</v>
+        <f>G5*0.193</f>
+        <v>9235.6290000000008</v>
       </c>
       <c r="I5" s="37">
-        <f t="shared" si="3"/>
-        <v>22110</v>
+        <f t="shared" ref="I5" si="2">SUM(G5:H5)</f>
+        <v>57088.629000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>32</v>
+      <c r="A6" s="49" t="s">
+        <v>13</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="6" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D6" s="66">
-        <v>0</v>
+        <v>47853</v>
       </c>
       <c r="E6" s="67">
-        <v>0</v>
+        <f t="shared" ref="E6" si="3">12*F6</f>
+        <v>6</v>
       </c>
       <c r="F6" s="68">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="10">
-        <v>0</v>
+        <f t="shared" ref="G6" si="4">D6*F6</f>
+        <v>23926.5</v>
       </c>
       <c r="H6" s="10">
-        <v>0</v>
+        <f>G6*0.193</f>
+        <v>4617.8145000000004</v>
       </c>
       <c r="I6" s="37">
-        <v>0</v>
+        <f t="shared" ref="I6" si="5">SUM(G6:H6)</f>
+        <v>28544.3145</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="66">
-        <v>47853</v>
-      </c>
-      <c r="E7" s="67">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7">
+        <v>33000</v>
+      </c>
+      <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F7" s="68">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.5</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="1"/>
-        <v>47853</v>
+        <v>16500</v>
       </c>
       <c r="H7" s="10">
-        <f>G7*0.193</f>
-        <v>9235.6290000000008</v>
+        <f>G7*0</f>
+        <v>0</v>
       </c>
       <c r="I7" s="37">
-        <f t="shared" si="3"/>
-        <v>57088.629000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
+        <f>SUM(G7:H7)</f>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="37"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="37"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="7">
-        <v>33000</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="7">
+        <v>34000</v>
+      </c>
+      <c r="E8" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F8" s="9">
         <v>0.5</v>
       </c>
-      <c r="G10" s="10">
-        <f t="shared" si="1"/>
-        <v>16500</v>
-      </c>
-      <c r="H10" s="10">
-        <f>G10*0</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="37">
-        <f>SUM(G10:H10)</f>
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="7">
-        <v>34000</v>
-      </c>
-      <c r="E11" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="G8" s="10">
         <f t="shared" si="1"/>
         <v>17000</v>
       </c>
-      <c r="H11" s="10">
-        <f t="shared" ref="H11" si="4">G11*0.34</f>
+      <c r="H8" s="10">
+        <f t="shared" ref="H8" si="6">G8*0.34</f>
         <v>5780</v>
       </c>
-      <c r="I11" s="37">
-        <f>SUM(G11:H11)</f>
+      <c r="I8" s="37">
+        <f>SUM(G8:H8)</f>
         <v>22780</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+    <row r="9" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13">
-        <f>SUM(G3:G11)</f>
-        <v>141728</v>
-      </c>
-      <c r="H12" s="13">
-        <f>SUM(H3:H11)</f>
-        <v>35543.129000000001</v>
-      </c>
-      <c r="I12" s="38">
-        <f>SUM(I3:I11)</f>
-        <v>177271.12900000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="24"/>
-      <c r="B13" s="75"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13">
+        <f>SUM(G3:G8)</f>
+        <v>131289.5</v>
+      </c>
+      <c r="H9" s="13">
+        <f>SUM(H3:H8)</f>
+        <v>28476.843500000003</v>
+      </c>
+      <c r="I9" s="38">
+        <f>SUM(I3:I8)</f>
+        <v>159766.34350000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="24"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="39"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="24"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="39"/>
+    </row>
+    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="39"/>
+    </row>
+    <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="71"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -1458,8 +1431,10 @@
       <c r="I13" s="39"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
-      <c r="B14" s="75"/>
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="24"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
@@ -1468,46 +1443,55 @@
       <c r="H14" s="16"/>
       <c r="I14" s="39"/>
     </row>
-    <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="71" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="39"/>
-    </row>
-    <row r="16" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="39"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="48">
+        <f>2*21000</f>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="43">
+        <v>1440</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="39"/>
+      <c r="A17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="43">
+        <v>805</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1516,14 +1500,11 @@
       <c r="F18" s="4"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="48">
-        <f>2*21000</f>
-        <v>42000</v>
-      </c>
+      <c r="I18" s="43"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1532,13 +1513,11 @@
       <c r="F19" s="4"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="43">
-        <v>1440</v>
-      </c>
+      <c r="I19" s="43"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1547,51 +1526,53 @@
       <c r="F20" s="4"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
-      <c r="I20" s="43">
-        <v>805</v>
-      </c>
+      <c r="I20" s="43"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
       <c r="I21" s="43"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="43"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="43">
+        <v>3500</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="43"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="37">
+        <v>5315</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
+      <c r="A24" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -1599,27 +1580,23 @@
       <c r="F24" s="15"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="43"/>
+      <c r="I24" s="37">
+        <v>5500</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="43">
-        <v>3500</v>
-      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="37"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -1627,13 +1604,11 @@
       <c r="F26" s="15"/>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="37">
-        <v>5315</v>
-      </c>
+      <c r="I26" s="37"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>14</v>
+      <c r="A27" s="25" t="s">
+        <v>16</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -1642,23 +1617,26 @@
       <c r="F27" s="15"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
-      <c r="I27" s="37">
-        <v>5500</v>
-      </c>
+      <c r="I27" s="37"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
+      <c r="A28" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="37"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="37">
+        <f>16*2000</f>
+        <v>32000</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -1670,7 +1648,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -1683,7 +1661,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -1693,12 +1671,13 @@
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
       <c r="I31" s="37">
-        <f>16*2000</f>
-        <v>32000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
+      <c r="A32" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -1706,177 +1685,175 @@
       <c r="F32" s="15"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="37"/>
+      <c r="I32" s="37">
+        <v>5000</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
-        <v>29</v>
-      </c>
+      <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="37"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="37">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="37">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
+    <row r="34" spans="1:9" s="22" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="37"/>
+    </row>
+    <row r="35" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="38">
+        <f>SUM(I15:I34)</f>
+        <v>99060</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
       <c r="I36" s="37"/>
     </row>
-    <row r="37" spans="1:9" s="22" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="37"/>
-    </row>
-    <row r="38" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="38">
-        <f>SUM(I18:I37)</f>
-        <v>99060</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="26"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="37"/>
-    </row>
-    <row r="40" spans="1:9" ht="20" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="73" t="s">
+    <row r="37" spans="1:9" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="40">
-        <f>(I38+I12)</f>
-        <v>276331.12900000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="72"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="39"/>
-    </row>
-    <row r="42" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="44">
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="40">
+        <f>(I35+I9)</f>
+        <v>258826.34350000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="72"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="39"/>
+    </row>
+    <row r="39" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="29"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="44">
         <v>0.15</v>
       </c>
-      <c r="I42" s="46">
-        <f>I40*H42</f>
-        <v>41449.669350000004</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="41">
-        <f>I42+I40</f>
-        <v>317780.79835</v>
-      </c>
+      <c r="I39" s="46">
+        <f>I37*H39</f>
+        <v>38823.951525000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="41">
+        <f>I39+I37</f>
+        <v>297650.295025</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="51"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="57"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="59"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="61"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="59"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="61"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="57"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="61"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="58" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B45" s="59"/>
       <c r="C45" s="60"/>
@@ -1928,7 +1905,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B49" s="59"/>
       <c r="C49" s="60"/>
@@ -1941,7 +1918,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B50" s="59"/>
       <c r="C50" s="60"/>
@@ -1953,9 +1930,7 @@
       <c r="I50" s="61"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="58" t="s">
-        <v>41</v>
-      </c>
+      <c r="A51" s="58"/>
       <c r="B51" s="59"/>
       <c r="C51" s="60"/>
       <c r="D51" s="59"/>
@@ -1966,8 +1941,8 @@
       <c r="I51" s="61"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="58" t="s">
-        <v>43</v>
+      <c r="A52" s="69" t="s">
+        <v>32</v>
       </c>
       <c r="B52" s="59"/>
       <c r="C52" s="60"/>
@@ -1980,7 +1955,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="58" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B53" s="59"/>
       <c r="C53" s="60"/>
@@ -1992,7 +1967,9 @@
       <c r="I53" s="61"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="58"/>
+      <c r="A54" s="58" t="s">
+        <v>43</v>
+      </c>
       <c r="B54" s="59"/>
       <c r="C54" s="60"/>
       <c r="D54" s="59"/>
@@ -2003,8 +1980,8 @@
       <c r="I54" s="61"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="69" t="s">
-        <v>35</v>
+      <c r="A55" s="58" t="s">
+        <v>44</v>
       </c>
       <c r="B55" s="59"/>
       <c r="C55" s="60"/>
@@ -2055,54 +2032,15 @@
       <c r="I58" s="61"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" s="59"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="61"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" s="59"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="61"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" s="59"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="61"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="62"/>
-      <c r="B62" s="63"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="65"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="65"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/budget/CZI HCA Goff Budget 2017 Draft.xlsx
+++ b/budget/CZI HCA Goff Budget 2017 Draft.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lgoff/Google Drive/Work/Goff Lab/Grants/2017/czi-rfa-2017/budget/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loyalgoff/Google Drive/Work/Goff Lab/Grants/2017/czi-rfa-2017/budget/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600"/>
+    <workbookView xWindow="25660" yWindow="8520" windowWidth="28800" windowHeight="16600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$59</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$62</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Personnel:</t>
   </si>
@@ -81,6 +81,9 @@
     <t>Reagents for enzymatic dissociation of single cells and seq. library preparation</t>
   </si>
   <si>
+    <t>Seth Blackshaw</t>
+  </si>
+  <si>
     <t>Services</t>
   </si>
   <si>
@@ -99,12 +102,6 @@
     <t>Barcode Index kit (96 samples, 1x $805)</t>
   </si>
   <si>
-    <t>Technician</t>
-  </si>
-  <si>
-    <t>PD/PI</t>
-  </si>
-  <si>
     <t>Facilities &amp; Administration Costs</t>
   </si>
   <si>
@@ -117,88 +114,82 @@
     <t>Laptop computer</t>
   </si>
   <si>
+    <t>Brian Clark</t>
+  </si>
+  <si>
+    <t>Research Associate</t>
+  </si>
+  <si>
+    <t>Expenses:</t>
+  </si>
+  <si>
+    <t>Briana Winer</t>
+  </si>
+  <si>
+    <t>384 sci-RNA-Seq RT primers</t>
+  </si>
+  <si>
+    <t>384 sci-RNA-Seq PCR P5 primers</t>
+  </si>
+  <si>
+    <t>384 sci-RNA-Seq PCR P7 primers</t>
+  </si>
+  <si>
+    <t>Collaborator</t>
+  </si>
+  <si>
+    <t>Adult Human retina tissue samples (4)</t>
+  </si>
+  <si>
+    <t>Illumina 2500 Sequencing lanes (24*$2,000)</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>RNAScope probes for model validations</t>
+  </si>
+  <si>
+    <t>Travel to HCA meetings</t>
+  </si>
+  <si>
+    <t>Travel expenses</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Research Technologist</t>
+  </si>
+  <si>
     <t>10x V2 library kit  (16 samples per kit; 2X $21,000 each)</t>
   </si>
   <si>
-    <t>Brian Clark</t>
-  </si>
-  <si>
-    <t>Research Associate</t>
-  </si>
-  <si>
-    <t>Budget Justification</t>
-  </si>
-  <si>
-    <t>Deliverables:</t>
-  </si>
-  <si>
-    <t>development (Goff, Fertig), and collaborative efforts on single cell collection and biological interpretation (Goff, Blackshaw).  Brian Clark is the research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">associated who will continute to generate the bulk and single cell libraries in retina and hypothalamus. Genevieve Stein-O'Brien is the chief developer and </t>
-  </si>
-  <si>
-    <t>maintainer of the ProjectoR package and will be responsible for imlementing the transfer learning statistics into the software package. Dong Won Kim will be</t>
-  </si>
-  <si>
-    <t>responible for dissection and dissociation of the proposed hypothalamus tissue samples.  The TBN graduate student, in conjunction with Gabrielle Cannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">will perform the required single cell library preparations and metadata aggregation.  Data processing and analysis will be conducted by Genevieve Stein-O'Brien </t>
-  </si>
-  <si>
-    <t>and Brian Clark with joint guidance from all three investigators.</t>
-  </si>
-  <si>
-    <t>• Salaries for PD/PI reflect contributions to overall project design and coordination (Loyal Goff, Elana Fertig, Seth Blackshaw), collaborative efforts on ProjectoR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• We are requesting $78,060 in direct costs for this pilot phase to generate the proposed 24 samples of hypothalamus single cell RNA-Seq data. This will </t>
-  </si>
-  <si>
-    <t>enable us to directly compare basis vectors learned independently in the mouse retina to a tissue with known developmental similarities.</t>
-  </si>
-  <si>
-    <t>The deliverables for this pilot project include:</t>
-  </si>
-  <si>
-    <t>• The ProjectoR R package for rapid exploration of basis vectors in large, multi-omic datasets, with a fully-implemented statistical framework.  This package</t>
-  </si>
-  <si>
-    <t>will be made available as part of the open source R/Bioconductor project</t>
-  </si>
-  <si>
-    <t>• A series of basis vectors, identified from developing mouse retina and hypothalamus, that are mapped through homologene to a human feature space.</t>
-  </si>
-  <si>
-    <t>We anticipate that these basis vectors can be used as proof of concept to demonstrate the feasibility of exploring homologous processes and gene expression</t>
-  </si>
-  <si>
-    <t>networks contributing to human retina and hypothalamus development through the available HCA datasets</t>
-  </si>
-  <si>
-    <t>Expenses:</t>
-  </si>
-  <si>
-    <t>Budget: "Rapid exploration and comparison of discrete basis vectors contributing to multi-omic signatures of single cells at the scale of the HCA with ProjectoR"</t>
-  </si>
-  <si>
-    <t>Briana Winer</t>
-  </si>
-  <si>
-    <t>384 REV sci-RNA-Seq fragment amp primers</t>
-  </si>
-  <si>
-    <t>384 FWD sci-RNA-Seq fragment amp primers</t>
-  </si>
-  <si>
-    <t>384 sci-RNA-Seq RT primers</t>
-  </si>
-  <si>
-    <t>Illumina 2500 Sequencing lanes (16*$2,000)</t>
-  </si>
-  <si>
-    <t>AWS Cloud computing services</t>
+    <t>Nextera XT Library Prep Kits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Loyal A. Goff, Ph.D. (PI) will be responsible for overall project design and coordination, direction on ProjectoR development and collaborative efforts on single cell collection and biological interpretation (Goff, Blackshaw).  
+• Seth Blackshaw, Ph.D. (Collaborator) Dr. Blackshaw is a renowned expert in the biology of mammalian retinal development.  Drs. Goff, Blackshaw, and collaborative network member Dr. Fertig have an existing collaboration built around a detailed characterization of retinal cell developmental biology that has contributed much of the preliminary data for this proposed project.  Dr. Blackshaw will continue to provide biological interpretations to learned basis vectors and will provide necessary resources for validations.
+• Brian Clark, Ph.D. (Postdoctoral Fellow) Dr. Clark is a postdoctoral fellow jointly mentored in the labs of the PI (Goff) and collaborator (Blackshaw). He has years of experience in studying mouse retina development and has extensive experience working with RNA. He will be responsible for tissue acquisition, processing, and will continue to generate the bulk and single cell libraries in mouse and human retina.  Dr. Clark will also be primarily responsible for validation of learned basis vectors through in situ fluorescence hybridization analysis. 
+• Genevieve Stein-O'Brien, Ph.D. (Postdoctoral Fellow) is the chief developer and maintainer of the ProjectoR package and will be responsible for implementing the transfer learning statistics into the software package. Dr. Stein-O’Brien is a postdoctoral fellow co-supervised by Dr. Goff and collaborative network member Dr. Fertig. She is listed in both proposals. In this proposal, Dr. Stein-O’Brien is listed as responsible for the algorithm development and analyses proposed in this award. Her work will be completed in collaboration with all key personnel on this proposal and co-supervised by Dr. Goff and Dr. Fertig. If both awards are funded, a TBN postdoc will be hired to collaborate with Dr. Stein-O’Brien on these efforts.
+• TBN (Graduate Student) in conjunction with the research technologist will perform the required single cell library preparations and metadata aggregation and will be primarily responsible for generating and processing the human retinal single cell benchmark data. 
+• Briana Winer (Research Technologist).  In conjunction with the TBN graduate student, Briana will be responsible for performing the additional 10x genomics and sci-RNA-Seq datasets under the direct supervision of the PI, as well as aggregation and organization of all associated metadata.
+• Loyal A. Goff, Ph.D. (PI) will be responsible for overall project design and coordination, direction on ProjectoR development and collaborative efforts on single cell collection and biological interpretation (Goff, Blackshaw).  
+• Seth Blackshaw, Ph.D. (Collaborator) Dr. Blackshaw is a renowned expert in the biology of mammalian retinal development.  Drs. Goff, Blackshaw, and collaborative network member Dr. Fertig have an existing collaboration built around a detailed characterization of retinal cell developmental biology that has contributed much of the preliminary data for this proposed project.  Dr. Blackshaw will continue to provide biological interpretations to learned basis vectors and will provide necessary resources for validations.
+• Brian Clark, Ph.D. (Postdoctoral Fellow) Dr. Clark is a postdoctoral fellow jointly mentored in the labs of the PI (Goff) and collaborator (Blackshaw). He has years of experience in studying mouse retina development and has extensive experience working with RNA. He will be responsible for tissue acquisition, processing, and will continue to generate the bulk and single cell libraries in mouse and human retina.  Dr. Clark will also be primarily responsible for validation of learned basis vectors through in situ fluorescence hybridization analysis. 
+• Genevieve Stein-O'Brien, Ph.D. (Postdoctoral Fellow) is the chief developer and maintainer of the ProjectoR package and will be responsible for implementing the transfer learning statistics into the software package. Dr. Stein-O’Brien is a postdoctoral fellow co-supervised by Dr. Goff and collaborative network member Dr. Fertig. She is listed in both proposals. In this proposal, Dr. Stein-O’Brien is listed as responsible for the algorithm development and analyses proposed in this award. Her work will be completed in collaboration with all key personnel on this proposal and co-supervised by Dr. Goff and Dr. Fertig. If both awards are funded, a TBN postdoc will be hired to collaborate with Dr. Stein-O’Brien on these efforts.
+• TBN (Graduate Student) in conjunction with the research technologist will perform the required single cell library preparations and metadata aggregation and will be primarily responsible for generating and processing the human retinal single cell benchmark data. 
+• Briana Winer (Research Technologist).  In conjunction with the TBN graduate student, Briana will be responsible for performing the additional 10x genomics and sci-RNA-Seq datasets under the direct supervision of the PI, as well as aggregation and organization of all associated metadata.
+• Loyal A. Goff, Ph.D. (PI) will be responsible for overall project design and coordination, direction on ProjectoR development and collaborative efforts on single cell collection and biological interpretation (Goff, Blackshaw).  
+• Seth Blackshaw, Ph.D. (Collaborator) Dr. Blackshaw is a renowned expert in the biology of mammalian retinal development.  Drs. Goff, Blackshaw, and collaborative network member Dr. Fertig have an existing collaboration built around a detailed characterization of retinal cell developmental biology that has contributed much of the preliminary data for this proposed project.  Dr. Blackshaw will continue to provide biological interpretations to learned basis vectors and will provide necessary resources for validations.
+• Brian Clark, Ph.D. (Postdoctoral Fellow) Dr. Clark is a postdoctoral fellow jointly mentored in the labs of the PI (Goff) and collaborator (Blackshaw). He has years of experience in studying mouse retina development and has extensive experience working with RNA. He will be responsible for tissue acquisition, processing, and will continue to generate the bulk and single cell libraries in mouse and human retina.  Dr. Clark will also be primarily responsible for validation of learned basis vectors through in situ fluorescence hybridization analysis. 
+• Genevieve Stein-O'Brien, Ph.D. (Postdoctoral Fellow) is the chief developer and maintainer of the ProjectoR package and will be responsible for implementing the transfer learning statistics into the software package. Dr. Stein-O’Brien is a postdoctoral fellow co-supervised by Dr. Goff and collaborative network member Dr. Fertig. She is listed in both proposals. In this proposal, Dr. Stein-O’Brien is listed as responsible for the algorithm development and analyses proposed in this award. Her work will be completed in collaboration with all key personnel on this proposal and co-supervised by Dr. Goff and Dr. Fertig. If both awards are funded, a TBN postdoc will be hired to collaborate with Dr. Stein-O’Brien on these efforts.
+• TBN (Graduate Student) in conjunction with the research technologist will perform the required single cell library preparations and metadata aggregation and will be primarily responsible for generating and processing the human retinal single cell benchmark data. 
+• Briana Winer (Research Technologist).  In conjunction with the TBN graduate student, Briana will be responsible for performing the additional 10x genomics and sci-RNA-Seq datasets under the direct supervision of the PI, as well as aggregation and organization of all associated metadata.
+</t>
+  </si>
+  <si>
+    <t>Rapid exploration, interpretation, and comparison of discrete basis vectors contributing to transcriptional signatures of single cells at the scale of the HCA with ProjectoR</t>
   </si>
 </sst>
 </file>
@@ -278,14 +269,6 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -298,6 +281,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -320,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -471,9 +459,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -481,68 +467,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="56">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -599,8 +525,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -706,37 +638,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -744,11 +645,10 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -760,8 +660,18 @@
     <xf numFmtId="166" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="56">
+  <cellStyles count="62">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -789,6 +699,9 @@
     <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -815,6 +728,9 @@
     <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="54"/>
     <cellStyle name="Percent" xfId="55" builtinId="5"/>
@@ -1120,10 +1036,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1141,8 +1057,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
-        <v>49</v>
+      <c r="A1" s="52" t="s">
+        <v>46</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="28"/>
@@ -1154,7 +1070,7 @@
       <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
@@ -1186,46 +1102,46 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D3" s="7">
         <v>130050</v>
       </c>
       <c r="E3" s="8">
         <f>12*F3</f>
-        <v>2.4000000000000004</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="F3" s="9">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="G3" s="10">
         <f>D3*F3</f>
-        <v>26010</v>
+        <v>19507.5</v>
       </c>
       <c r="H3" s="10">
         <f>G3*0.34</f>
-        <v>8843.4000000000015</v>
+        <v>6632.55</v>
       </c>
       <c r="I3" s="37">
         <f>SUM(G3:H3)</f>
-        <v>34853.4</v>
+        <v>26140.05</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="66">
+        <v>34</v>
+      </c>
+      <c r="D4" s="49">
         <v>0</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="8">
         <v>0</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="9">
         <v>0</v>
       </c>
       <c r="G4" s="10">
@@ -1240,64 +1156,60 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="49">
+        <v>0</v>
+      </c>
+      <c r="E5" s="50">
+        <v>0</v>
+      </c>
+      <c r="F5" s="51">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="66">
-        <v>47853</v>
-      </c>
-      <c r="E5" s="67">
-        <f t="shared" ref="E5:E8" si="0">12*F5</f>
-        <v>12</v>
-      </c>
-      <c r="F5" s="68">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10">
-        <f t="shared" ref="G5:G8" si="1">D5*F5</f>
-        <v>47853</v>
-      </c>
-      <c r="H5" s="10">
-        <f>G5*0.193</f>
-        <v>9235.6290000000008</v>
-      </c>
-      <c r="I5" s="37">
-        <f t="shared" ref="I5" si="2">SUM(G5:H5)</f>
-        <v>57088.629000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
-        <v>13</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="66">
+        <v>19</v>
+      </c>
+      <c r="D6" s="49">
         <v>47853</v>
       </c>
-      <c r="E6" s="67">
-        <f t="shared" ref="E6" si="3">12*F6</f>
-        <v>6</v>
-      </c>
-      <c r="F6" s="68">
-        <v>0.5</v>
+      <c r="E6" s="50">
+        <f t="shared" ref="E6:E8" si="0">12*F6</f>
+        <v>12</v>
+      </c>
+      <c r="F6" s="51">
+        <v>1</v>
       </c>
       <c r="G6" s="10">
-        <f t="shared" ref="G6" si="4">D6*F6</f>
-        <v>23926.5</v>
+        <f t="shared" ref="G6:G8" si="1">D6*F6</f>
+        <v>47853</v>
       </c>
       <c r="H6" s="10">
         <f>G6*0.193</f>
-        <v>4617.8145000000004</v>
+        <v>9235.6290000000008</v>
       </c>
       <c r="I6" s="37">
-        <f t="shared" ref="I6" si="5">SUM(G6:H6)</f>
-        <v>28544.3145</v>
+        <f t="shared" ref="I6" si="2">SUM(G6:H6)</f>
+        <v>57088.629000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1313,14 +1225,14 @@
       </c>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F7" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="1"/>
-        <v>16500</v>
+        <v>33000</v>
       </c>
       <c r="H7" s="10">
         <f>G7*0</f>
@@ -1328,16 +1240,16 @@
       </c>
       <c r="I7" s="37">
         <f>SUM(G7:H7)</f>
-        <v>16500</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7">
         <v>34000</v>
@@ -1354,7 +1266,7 @@
         <v>17000</v>
       </c>
       <c r="H8" s="10">
-        <f t="shared" ref="H8" si="6">G8*0.34</f>
+        <f t="shared" ref="H8" si="3">G8*0.34</f>
         <v>5780</v>
       </c>
       <c r="I8" s="37">
@@ -1364,29 +1276,29 @@
     </row>
     <row r="9" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="74"/>
+        <v>37</v>
+      </c>
+      <c r="B9" s="56"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="13">
         <f>SUM(G3:G8)</f>
-        <v>131289.5</v>
+        <v>117360.5</v>
       </c>
       <c r="H9" s="13">
         <f>SUM(H3:H8)</f>
-        <v>28476.843500000003</v>
+        <v>21648.179</v>
       </c>
       <c r="I9" s="38">
         <f>SUM(I3:I8)</f>
-        <v>159766.34350000002</v>
+        <v>139008.679</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="24"/>
-      <c r="B10" s="75"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -1397,7 +1309,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
-      <c r="B11" s="75"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -1407,8 +1319,8 @@
       <c r="I11" s="39"/>
     </row>
     <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
-        <v>48</v>
+      <c r="A12" s="53" t="s">
+        <v>29</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="14"/>
@@ -1420,7 +1332,7 @@
       <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="24"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -1445,7 +1357,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1461,7 +1373,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1476,7 +1388,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1491,7 +1403,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1500,11 +1412,13 @@
       <c r="F18" s="4"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="43"/>
+      <c r="I18" s="43">
+        <v>6000</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1513,11 +1427,13 @@
       <c r="F19" s="4"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="43"/>
+      <c r="I19" s="43">
+        <v>6500</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1526,10 +1442,14 @@
       <c r="F20" s="4"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
-      <c r="I20" s="43"/>
+      <c r="I20" s="43">
+        <v>2250</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
+      <c r="A21" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -1537,7 +1457,9 @@
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="43"/>
+      <c r="I21" s="43">
+        <v>6500</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -1551,12 +1473,12 @@
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="43">
-        <v>3500</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -1566,7 +1488,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="37">
-        <v>5315</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1585,7 +1507,9 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -1593,35 +1517,39 @@
       <c r="F25" s="4"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
-      <c r="I25" s="37"/>
+      <c r="I25" s="37">
+        <v>5000</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
+      <c r="A26" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="37"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="37">
+        <v>3000</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
-        <v>16</v>
-      </c>
+      <c r="A27" s="4"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="37"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>54</v>
+      <c r="A28" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -1630,13 +1558,12 @@
       <c r="F28" s="15"/>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="37">
-        <f>16*2000</f>
-        <v>32000</v>
-      </c>
+      <c r="I28" s="37"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -1644,12 +1571,13 @@
       <c r="F29" s="15"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
-      <c r="I29" s="37"/>
+      <c r="I29" s="37">
+        <f>24*2000</f>
+        <v>48000</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
-        <v>26</v>
-      </c>
+      <c r="A30" s="4"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -1660,8 +1588,8 @@
       <c r="I30" s="37"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>27</v>
+      <c r="A31" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -1670,13 +1598,11 @@
       <c r="F31" s="15"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
-      <c r="I31" s="37">
-        <v>3500</v>
-      </c>
+      <c r="I31" s="37"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -1686,363 +1612,373 @@
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="37">
-        <v>5000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
+      <c r="A33" s="4"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
       <c r="I33" s="37"/>
     </row>
-    <row r="34" spans="1:9" s="22" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
       <c r="I34" s="37"/>
     </row>
-    <row r="35" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="38">
-        <f>SUM(I15:I34)</f>
-        <v>99060</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="37">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="25"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
       <c r="I36" s="37"/>
     </row>
-    <row r="37" spans="1:9" ht="20" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="73" t="s">
+    <row r="37" spans="1:9" s="22" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="37"/>
+    </row>
+    <row r="38" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="38">
+        <f>SUM(I15:I37)</f>
+        <v>144995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="26"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="37"/>
+    </row>
+    <row r="40" spans="1:9" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="40">
-        <f>(I35+I9)</f>
-        <v>258826.34350000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="72"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="39"/>
-    </row>
-    <row r="39" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="45" t="s">
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="40">
+        <f>(I38+I9)</f>
+        <v>284003.679</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="54"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="39"/>
+    </row>
+    <row r="42" spans="1:9" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="29"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="44">
+        <v>0.15</v>
+      </c>
+      <c r="I42" s="46">
+        <f>I40*H42</f>
+        <v>42600.551849999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="44">
-        <v>0.15</v>
-      </c>
-      <c r="I39" s="46">
-        <f>I37*H39</f>
-        <v>38823.951525000004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="41">
-        <f>I39+I37</f>
-        <v>297650.295025</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="51"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="57"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="61"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="59"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="61"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="41">
+        <f>I42+I40</f>
+        <v>326604.23084999999</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="59"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="61"/>
+      <c r="A44" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="B45" s="59"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="61"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46" s="59"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="61"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="59"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="61"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="59"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="61"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="63"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="59"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="61"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="B50" s="59"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="61"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="58"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="61"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B52" s="59"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="59"/>
-      <c r="E52" s="59"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="61"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="63"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="59"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="59"/>
-      <c r="F53" s="59"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="61"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="B54" s="59"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="61"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" s="59"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="61"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" s="59"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="61"/>
+      <c r="A56" s="63"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="59"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="59"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="61"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" s="59"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="61"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="62"/>
+      <c r="A59" s="63"/>
       <c r="B59" s="63"/>
-      <c r="C59" s="64"/>
+      <c r="C59" s="63"/>
       <c r="D59" s="63"/>
       <c r="E59" s="63"/>
       <c r="F59" s="63"/>
       <c r="G59" s="63"/>
       <c r="H59" s="63"/>
-      <c r="I59" s="65"/>
+      <c r="I59" s="63"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="63"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="63"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="63"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A44:I62"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait"/>
